--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -10,14 +10,14 @@
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t>Item</t>
   </si>
@@ -70,12 +70,6 @@
     <t>N82E16819116394</t>
   </si>
   <si>
-    <t>N82E16820139428</t>
-  </si>
-  <si>
-    <t>Kingston 16GB SSD</t>
-  </si>
-  <si>
     <t>PNY 8GB Memory</t>
   </si>
   <si>
@@ -175,19 +169,124 @@
     <t>Hobby King</t>
   </si>
   <si>
-    <t>Turnigy Nanotech 4S 6AHr LiPo</t>
-  </si>
-  <si>
-    <t>N6000.4S.25</t>
-  </si>
-  <si>
-    <t>Pressure Sensor</t>
-  </si>
-  <si>
     <t>1m RGB LED Light Strip</t>
   </si>
   <si>
     <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Kingston 64GB SSD</t>
+  </si>
+  <si>
+    <t>N82E16820139949</t>
+  </si>
+  <si>
+    <t>5mm to 6mm shim</t>
+  </si>
+  <si>
+    <t>Black Alloy Steel Flat-head Socket Cap Screw, Class 10.9, M3 Size, 5mm Length, .50mm Pitch</t>
+  </si>
+  <si>
+    <t>91294A125</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Self-lubricating Mds-filled Nylon Strip .02" Thick X 1" Wide, Black, 5 Ft. Length</t>
+  </si>
+  <si>
+    <t>microRax compatible screws</t>
+  </si>
+  <si>
+    <t>BMP085 breakout</t>
+  </si>
+  <si>
+    <t>Pressure, temp sensor</t>
+  </si>
+  <si>
+    <t>8751K63</t>
+  </si>
+  <si>
+    <t>thumb screws</t>
+  </si>
+  <si>
+    <t>Black-oxide Steel Knurled Head Thumb Screw, With Straight Shoulder, M3 Thread, 6mm Long</t>
+  </si>
+  <si>
+    <t>92581A120</t>
+  </si>
+  <si>
+    <t>Neato Laser USB</t>
+  </si>
+  <si>
+    <t>Mecanumbot Power Board</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Neato</t>
+  </si>
+  <si>
+    <t>XV-11</t>
+  </si>
+  <si>
+    <t>laser scanner</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>xbox controller w/ play and charge</t>
+  </si>
+  <si>
+    <t>xbox360 wireless gaming receiver</t>
+  </si>
+  <si>
+    <t>B000HZFCT2</t>
+  </si>
+  <si>
+    <t>B00936K09S</t>
+  </si>
+  <si>
+    <t>Turnigy Nanotech 3S 8AHr LiPo</t>
+  </si>
+  <si>
+    <t>Z80003S-30</t>
+  </si>
+  <si>
+    <t>battery charger</t>
+  </si>
+  <si>
+    <t>Turnigy Accucel-6 50W 6A Balancer/Charger w/ accessories</t>
+  </si>
+  <si>
+    <t>120W wide input DC power supply</t>
+  </si>
+  <si>
+    <t>picoPSU-120 WI 12-25V Wide Input Plug-in DC-DC ATX PSU (192W AC Adapter Compatible)</t>
+  </si>
+  <si>
+    <t>Mini-ITX.com</t>
+  </si>
+  <si>
+    <t>pico-PSU-120WI-25V</t>
   </si>
 </sst>
 </file>
@@ -197,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +325,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,34 +353,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -311,6 +411,23 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -322,17 +439,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F25" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Currency">
-  <autoFilter ref="A1:F25"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H33" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="Currency">
+  <autoFilter ref="A1:H33"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Item"/>
+    <tableColumn id="7" name="Category"/>
     <tableColumn id="2" name="Quantity"/>
     <tableColumn id="3" name="Vendor"/>
-    <tableColumn id="4" name="Vendor Part ID"/>
-    <tableColumn id="5" name="Cost" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Sub-Total" dataDxfId="1" dataCellStyle="Currency">
-      <calculatedColumnFormula>B2*E2</calculatedColumnFormula>
+    <tableColumn id="4" name="Vendor Part ID" dataDxfId="0"/>
+    <tableColumn id="5" name="Cost" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Sub-Total" dataDxfId="2" dataCellStyle="Currency">
+      <calculatedColumnFormula>C2*F2</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,508 +744,837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3">
+        <v>34.03</v>
+      </c>
+      <c r="G2" s="3">
+        <f>C2*F2</f>
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12.52</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G26" si="0">C3*F3</f>
+        <v>37.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3">
-        <v>34.03</v>
-      </c>
-      <c r="F2" s="3">
-        <f>B2*E2</f>
-        <v>68.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <v>119.95</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>119.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3">
+        <v>75.56</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>151.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3">
-        <v>12.52</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F25" si="0">B3*E3</f>
-        <v>37.56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3">
-        <v>119.95</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>119.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3">
-        <v>75.56</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>151.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>54.66</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>218.64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>138.99</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>138.99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3">
+        <f>C8*F8</f>
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F9" s="3">
         <v>3.49</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>3.49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F10" s="3">
         <v>149.99</v>
       </c>
-      <c r="F9" s="3">
-        <f>B9*E9</f>
+      <c r="G10" s="3">
+        <f>C10*F10</f>
         <v>149.99</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F11" s="3">
         <v>81.99</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>81.99</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3">
-        <v>134.99</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>134.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>49.99</v>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>134.99</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>134.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3">
+        <v>119.99</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>119.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3">
+        <v>29.95</v>
+      </c>
+      <c r="G14" s="3">
+        <f>C14*F14</f>
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15.21</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>15.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>24.77</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3">
+        <v>251.66</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>251.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="3">
+        <v>46.55</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5">
+        <v>391</v>
+      </c>
+      <c r="F22" s="3">
+        <v>19.95</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5">
+        <v>306</v>
+      </c>
+      <c r="F23" s="3">
         <v>29.95</v>
       </c>
-      <c r="F13" s="3">
-        <f>B13*E13</f>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
         <v>29.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14.95</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>15.21</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>15.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3">
-        <v>24.77</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>24.77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="G27" s="3">
+        <f>C27*F27</f>
+        <v>16.38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3">
+        <v>332.98</v>
+      </c>
+      <c r="G28" s="3">
+        <f>C28*F28</f>
+        <v>332.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="3">
+        <v>50</v>
+      </c>
+      <c r="G29" s="3">
+        <f>C29*F29</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
+        <f>C30*F30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="7">
+        <v>61.99</v>
+      </c>
+      <c r="G31" s="7">
+        <f>C31*F31</f>
+        <v>61.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="7">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="G32" s="7">
+        <f>C32*F32</f>
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12.01</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="3">
-        <v>251.66</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>251.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="3">
-        <v>51.46</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>102.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="3">
-        <v>14.95</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="3">
+      <c r="F33" s="3">
+        <v>22.99</v>
+      </c>
+      <c r="G33" s="3">
+        <f>C33*F33</f>
+        <v>22.99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
         <f>SUM(Table1[Sub-Total])</f>
-        <v>1640.7400000000002</v>
+        <v>2418.3499999999995</v>
       </c>
     </row>
   </sheetData>
